--- a/evals.xlsx
+++ b/evals.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
   <si>
     <t>PFC-Rabeez</t>
   </si>
@@ -135,12 +135,6 @@
   </si>
   <si>
     <t>Do not remove this --&gt;</t>
-  </si>
-  <si>
-    <t>Test1</t>
-  </si>
-  <si>
-    <t>PFC-Test1</t>
   </si>
   <si>
     <t>RCT-Test2</t>
@@ -522,10 +516,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -771,60 +765,60 @@
         <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" s="7">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G6" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I6" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J6" s="7">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K6" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="Q6" s="7">
-        <f>(E6*2)+(F6*4)+G6+H6+I6+(J6*2)</f>
-        <v>138</v>
+        <f t="shared" ref="Q6:Q7" si="1">(E6*2)+(F6*4)+G6+H6+I6+(J6*2)</f>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -834,34 +828,34 @@
         <v>4</v>
       </c>
       <c r="E7" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G7" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H7" s="7">
+        <v>4</v>
+      </c>
+      <c r="I7" s="7">
+        <v>7</v>
+      </c>
+      <c r="J7" s="7">
         <v>8</v>
-      </c>
-      <c r="I7" s="7">
-        <v>6</v>
-      </c>
-      <c r="J7" s="7">
-        <v>7</v>
       </c>
       <c r="K7" s="7">
         <v>100</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>5</v>
@@ -870,60 +864,6 @@
         <v>5</v>
       </c>
       <c r="Q7" s="7">
-        <f t="shared" ref="Q7:Q8" si="1">(E7*2)+(F7*4)+G7+H7+I7+(J7*2)</f>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="7">
-        <v>3</v>
-      </c>
-      <c r="F8" s="7">
-        <v>4</v>
-      </c>
-      <c r="G8" s="7">
-        <v>7</v>
-      </c>
-      <c r="H8" s="7">
-        <v>4</v>
-      </c>
-      <c r="I8" s="7">
-        <v>7</v>
-      </c>
-      <c r="J8" s="7">
-        <v>8</v>
-      </c>
-      <c r="K8" s="7">
-        <v>100</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q8" s="7">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
